--- a/tietokanta/class_progression/excel/class_progression_Barbarian.xlsx
+++ b/tietokanta/class_progression/excel/class_progression_Barbarian.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5AACF22F-1E8C-483E-80D4-D4122A7C2C79}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75A5162B-08F3-4DF0-8C4C-88C4D87E7AC9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32175" yWindow="1815" windowWidth="19665" windowHeight="12780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Taul1" sheetId="1" r:id="rId1"/>
@@ -32,11 +32,14 @@
   <connection id="2" xr16:uid="{188E8B14-C6A9-4AB0-A312-4BD8544C600C}" name="progression_schema" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\class_progression\progression_schema.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="3" xr16:uid="{A40B26FD-AFEF-44EE-AC44-FC98AA2212C9}" name="progression_schema1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="D:\Riku\Koulu\Ohjelmointyo\tietokanta\schemas\progression_schema.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="39">
   <si>
     <t>Ancestry</t>
   </si>
@@ -150,6 +153,9 @@
   </si>
   <si>
     <t>Advancement10</t>
+  </si>
+  <si>
+    <t>none</t>
   </si>
 </sst>
 </file>
@@ -213,25 +219,25 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema2">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Progressions">
         <xsd:complexType>
           <xsd:sequence minOccurs="0">
-            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="Progression" form="unqualified">
+            <xsd:element minOccurs="0" maxOccurs="unbounded" nillable="true" name="progression" form="unqualified">
               <xsd:complexType>
                 <xsd:sequence minOccurs="0">
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="Level" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Advancement1" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Advancement2" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Advancement3" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Advancement4" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Advancement5" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Advancement6" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Advancement7" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Advancement8" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Advancement9" form="unqualified"/>
-                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="Advancement10" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="level" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advancement1" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advancement2" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advancement3" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advancement4" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advancement5" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advancement6" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advancement7" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advancement8" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advancement9" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="advancement10" form="unqualified"/>
                 </xsd:sequence>
               </xsd:complexType>
             </xsd:element>
@@ -240,48 +246,48 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="2" Name="Progressions-määritys" RootElement="Progressions" SchemaID="Schema2" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="2" DataBindingLoadMode="1"/>
+  <Map ID="3" Name="Progressions-määritys" RootElement="Progressions" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C01E9028-41B5-47FC-836D-CC5D83B5786E}" name="Taulukko1" displayName="Taulukko1" ref="A1:K21" tableType="xml" totalsRowShown="0" connectionId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C01E9028-41B5-47FC-836D-CC5D83B5786E}" name="Taulukko1" displayName="Taulukko1" ref="A1:K21" tableType="xml" totalsRowShown="0" connectionId="3">
   <autoFilter ref="A1:K21" xr:uid="{D8DD9CF3-4BB5-4F6C-9B25-72A0D66FA3FD}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{06A9E529-5544-49D0-9636-F3CC8B0FC608}" uniqueName="Level" name="Level">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Level" xmlDataType="integer"/>
+    <tableColumn id="1" xr3:uid="{06A9E529-5544-49D0-9636-F3CC8B0FC608}" uniqueName="level" name="Level">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/level" xmlDataType="integer"/>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{47E14C1B-3EA7-4EE4-B212-937CDB997C95}" uniqueName="Advancement1" name="Advancement1">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Advancement1" xmlDataType="string"/>
+    <tableColumn id="2" xr3:uid="{47E14C1B-3EA7-4EE4-B212-937CDB997C95}" uniqueName="advancement1" name="Advancement1">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/advancement1" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{818FEF0D-7A89-40ED-9A77-0A5D85171E87}" uniqueName="Advancement2" name="Advancement2">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Advancement2" xmlDataType="string"/>
+    <tableColumn id="3" xr3:uid="{818FEF0D-7A89-40ED-9A77-0A5D85171E87}" uniqueName="advancement2" name="Advancement2">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/advancement2" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{108D3DD7-F44D-49E9-9238-1DF24A3EB40F}" uniqueName="Advancement3" name="Advancement3">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Advancement3" xmlDataType="string"/>
+    <tableColumn id="4" xr3:uid="{108D3DD7-F44D-49E9-9238-1DF24A3EB40F}" uniqueName="advancement3" name="Advancement3">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/advancement3" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{56CBAB10-68DF-420D-83DD-36B666DDF558}" uniqueName="Advancement4" name="Advancement4">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Advancement4" xmlDataType="string"/>
+    <tableColumn id="5" xr3:uid="{56CBAB10-68DF-420D-83DD-36B666DDF558}" uniqueName="advancement4" name="Advancement4">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/advancement4" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{92C92FB3-8DE5-401D-8FC1-8BB941C83907}" uniqueName="Advancement5" name="Advancement5">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Advancement5" xmlDataType="string"/>
+    <tableColumn id="6" xr3:uid="{92C92FB3-8DE5-401D-8FC1-8BB941C83907}" uniqueName="advancement5" name="Advancement5">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/advancement5" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{2E51AE44-9DB8-45BB-B547-5724E3B6EB17}" uniqueName="Advancement6" name="Advancement6">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Advancement6" xmlDataType="string"/>
+    <tableColumn id="7" xr3:uid="{2E51AE44-9DB8-45BB-B547-5724E3B6EB17}" uniqueName="advancement6" name="Advancement6">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/advancement6" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{695EF448-5338-42C1-8B00-D19CA3C70746}" uniqueName="Advancement7" name="Advancement7">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Advancement7" xmlDataType="string"/>
+    <tableColumn id="8" xr3:uid="{695EF448-5338-42C1-8B00-D19CA3C70746}" uniqueName="advancement7" name="Advancement7">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/advancement7" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{DD3C04A2-63FF-4B70-9930-C0ABAB61DDCA}" uniqueName="Advancement8" name="Advancement8">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Advancement8" xmlDataType="string"/>
+    <tableColumn id="9" xr3:uid="{DD3C04A2-63FF-4B70-9930-C0ABAB61DDCA}" uniqueName="advancement8" name="Advancement8">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/advancement8" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{3DE80CC7-42F9-4D65-9685-24C5E5B9F5DE}" uniqueName="Advancement9" name="Advancement9">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Advancement9" xmlDataType="string"/>
+    <tableColumn id="10" xr3:uid="{3DE80CC7-42F9-4D65-9685-24C5E5B9F5DE}" uniqueName="advancement9" name="Advancement9">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/advancement9" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{13F6AB8F-890F-460E-B4FB-EFD9712EB767}" uniqueName="Advancement10" name="Advancement10">
-      <xmlColumnPr mapId="2" xpath="/Progressions/Progression/Advancement10" xmlDataType="string"/>
+    <tableColumn id="11" xr3:uid="{13F6AB8F-890F-460E-B4FB-EFD9712EB767}" uniqueName="advancement10" name="Advancement10">
+      <xmlColumnPr mapId="3" xpath="/Progressions/progression/advancement10" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -553,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -622,10 +628,18 @@
       <c r="G2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -637,14 +651,30 @@
       <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -659,13 +689,27 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -677,14 +721,30 @@
       <c r="C5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -702,12 +762,24 @@
       <c r="E6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="F6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -719,14 +791,30 @@
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="D7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -744,12 +832,24 @@
       <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -761,14 +861,30 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -786,12 +902,24 @@
       <c r="E10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="F10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -806,13 +934,27 @@
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -827,13 +969,27 @@
       <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="E12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -845,14 +1001,30 @@
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -873,11 +1045,21 @@
       <c r="F14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -889,14 +1071,30 @@
       <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -917,11 +1115,21 @@
       <c r="F16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -933,14 +1141,30 @@
       <c r="C17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -958,12 +1182,24 @@
       <c r="E18" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="F18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -975,14 +1211,30 @@
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
+      <c r="D19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -1000,12 +1252,24 @@
       <c r="E20" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
+      <c r="F20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1020,13 +1284,27 @@
       <c r="D21" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
